--- a/helping docs/Database_Map.xlsx
+++ b/helping docs/Database_Map.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\LeBow-MBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\LeBow-MBA\helping docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943DB6BF-8C01-4DD8-A4D4-6FE499DF7F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C554A73-3EBB-4F17-9EE0-BD5BAE75A6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2370,7 +2370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2401,6 +2401,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2414,7 +2426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2431,6 +2443,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2714,7 +2729,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,7 +3449,7 @@
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="11" t="s">
         <v>738</v>
       </c>
       <c r="B24" t="s">
@@ -3467,7 +3482,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="11" t="s">
         <v>739</v>
       </c>
       <c r="B25" t="s">
@@ -3500,68 +3515,68 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="10" t="s">
         <v>740</v>
       </c>
       <c r="B26" t="s">
         <v>681</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="12">
         <f t="shared" si="1"/>
         <v>5.257142857142858</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>5.23</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>5.28</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="7">
         <v>5.39</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="7">
         <v>5.22</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="7">
         <v>5.28</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="7">
         <v>5.29</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="7">
         <v>5.1100000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>741</v>
       </c>
       <c r="B27" t="s">
         <v>670</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="12">
         <f t="shared" si="1"/>
         <v>4.9771428571428578</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="7">
         <v>5.03</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <v>4.91</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="7">
         <v>5.09</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="7">
         <v>4.91</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="7">
         <v>5.19</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="7">
         <v>4.8099999999999996</v>
       </c>
     </row>
@@ -4351,8 +4366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B339" sqref="B339"/>
+    <sheetView topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
